--- a/ExcelData/Enemy.xlsx
+++ b/ExcelData/Enemy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\Fight\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8634758-AA22-4D74-B272-8BC84969A82A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A5067D-AB79-4885-9D2E-436D4AB962C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="980" yWindow="1740" windowWidth="23520" windowHeight="11770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
   <si>
     <t>索引</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -188,6 +188,30 @@
   </si>
   <si>
     <t>E003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skills</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能冷却</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillCools</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list&lt;int&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list&lt;float&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -531,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -547,9 +571,10 @@
     <col min="7" max="7" width="8.6640625" style="1"/>
     <col min="8" max="8" width="10.33203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.83203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -583,8 +608,14 @@
       <c r="K1" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -618,8 +649,14 @@
       <c r="K2" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="L2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -653,8 +690,14 @@
       <c r="K3" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="L3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -688,8 +731,14 @@
       <c r="K4" s="1">
         <v>100</v>
       </c>
+      <c r="L4" s="1">
+        <v>1</v>
+      </c>
+      <c r="M4" s="1">
+        <v>8</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
@@ -700,7 +749,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="1">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E5" s="1">
         <v>0.1</v>
@@ -709,7 +758,7 @@
         <v>0.5</v>
       </c>
       <c r="G5" s="1">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="H5" s="1">
         <v>1</v>
@@ -723,8 +772,14 @@
       <c r="K5" s="1">
         <v>200</v>
       </c>
+      <c r="L5" s="1">
+        <v>1</v>
+      </c>
+      <c r="M5" s="1">
+        <v>8</v>
+      </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
@@ -735,7 +790,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E6" s="1">
         <v>0.2</v>
@@ -744,7 +799,7 @@
         <v>0.5</v>
       </c>
       <c r="G6" s="1">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="H6" s="1">
         <v>1</v>
@@ -757,6 +812,12 @@
       </c>
       <c r="K6" s="1">
         <v>300</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1</v>
+      </c>
+      <c r="M6" s="1">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelData/Enemy.xlsx
+++ b/ExcelData/Enemy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\Fight\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A5067D-AB79-4885-9D2E-436D4AB962C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F72BF791-DBDC-482E-8B75-8EAF5673B0C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="980" yWindow="1740" windowWidth="23520" windowHeight="11770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
   <si>
     <t>索引</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -212,6 +212,30 @@
   </si>
   <si>
     <t>list&lt;float&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EB001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死灵前锋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活靶子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5;8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -555,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -714,7 +738,7 @@
         <v>0.05</v>
       </c>
       <c r="F4" s="1">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="G4" s="1">
         <v>1500</v>
@@ -755,10 +779,10 @@
         <v>0.1</v>
       </c>
       <c r="F5" s="1">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="G5" s="1">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="H5" s="1">
         <v>1</v>
@@ -790,13 +814,13 @@
         <v>3</v>
       </c>
       <c r="D6" s="1">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E6" s="1">
         <v>0.2</v>
       </c>
       <c r="F6" s="1">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="G6" s="1">
         <v>2000</v>
@@ -818,6 +842,82 @@
       </c>
       <c r="M6" s="1">
         <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>4000</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
+        <v>9</v>
+      </c>
+      <c r="J7" s="1">
+        <v>4</v>
+      </c>
+      <c r="K7" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1">
+        <v>35</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="G8" s="1">
+        <v>3500</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I8" s="1">
+        <v>9</v>
+      </c>
+      <c r="J8" s="1">
+        <v>5</v>
+      </c>
+      <c r="K8" s="1">
+        <v>500</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
